--- a/xlsx/独裁政体_intext.xlsx
+++ b/xlsx/独裁政体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
   <si>
     <t>独裁政体</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>政策_政策_政治_独裁政体</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%AA%E6%94%BF</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -71,19 +71,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%AC%8A</t>
   </si>
   <si>
-    <t>集權</t>
+    <t>集权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>極權</t>
+    <t>极权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>人民主權</t>
+    <t>人民主权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Limited_government</t>
@@ -95,13 +95,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%94%A2%E9%9A%8E%E7%B4%9A%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>無產階級專政</t>
+    <t>无产阶级专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E6%94%BF%E4%BD%93</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E5%9C%8B</t>
   </si>
   <si>
-    <t>君主國</t>
+    <t>君主国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>共和國</t>
+    <t>共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8</t>
   </si>
   <si>
-    <t>緬甸</t>
+    <t>缅甸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -155,49 +155,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>普魯士王國</t>
+    <t>普鲁士王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>南斯拉夫王國</t>
+    <t>南斯拉夫王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C</t>
   </si>
   <si>
-    <t>羅馬共和</t>
+    <t>罗马共和</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E5%AE%98</t>
   </si>
   <si>
-    <t>獨裁官</t>
+    <t>独裁官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%AD%E4%B8%BB</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%88%A9%E7%83%8F%E6%96%AF%C2%B7%E5%87%B1%E6%92%92</t>
   </si>
   <si>
-    <t>尤利烏斯·凱撒</t>
+    <t>尤利乌斯·凯撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E4%BA%9A%E5%A7%86-%E9%9F%A6%E4%BC%AF%E6%96%AF%E7%89%B9%E5%AD%97%E5%85%B8</t>
@@ -251,21 +251,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E7%B5%B1%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭統治</t>
+    <t>寡头统治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>古希臘語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB</t>
   </si>
   <si>
@@ -275,7 +272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%BE%A4%E8%AB%AD%E5%90%89</t>
   </si>
   <si>
-    <t>福澤諭吉</t>
+    <t>福泽谕吉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%AE%AE%E6%8A%A5</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%93%E6%94%BF</t>
@@ -299,19 +296,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E6%9E%97%E8%8C%B2</t>
   </si>
   <si>
-    <t>胡安·林茲</t>
+    <t>胡安·林兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%9E%8B%E6%85%8B</t>
   </si>
   <si>
-    <t>意識型態</t>
+    <t>意识型态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6%E4%BA%BA%E4%BF%A1%E6%81%AF%E7%A4%BE</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E8%88%87%E7%8D%A8%E8%A3%81%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>民主與獨裁指數</t>
+    <t>民主与独裁指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%8C%96</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%AD%90</t>
   </si>
   <si>
-    <t>東歐</t>
+    <t>东欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4</t>
@@ -389,13 +386,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9F%93</t>
   </si>
   <si>
-    <t>南韓</t>
+    <t>南韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -407,13 +404,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E4%BA%BA%E6%AC%8A%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國人權委員會</t>
+    <t>联合国人权委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%91%A9%C2%B7%E9%A9%AC%E4%B8%81%C2%B7%E5%88%A9%E6%99%AE%E5%A1%9E%E7%89%B9</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%94%BF%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
-    <t>憲政民主</t>
+    <t>宪政民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5</t>
@@ -461,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC%E5%A5%A7%C2%B7%E7%BE%85%E5%9F%B9%E8%8C%B2%C2%B7%E8%81%96%E5%A1%94%C2%B7%E5%AE%89%E9%82%A3</t>
   </si>
   <si>
-    <t>安東尼奧·羅培茲·聖塔·安那</t>
+    <t>安东尼奥·罗培兹·圣塔·安那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E8%BF%AA%E7%BD%97</t>
@@ -479,13 +476,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E6%9B%BC%E5%8A%AA%E5%9F%83%E7%88%BE%C2%B7%E5%BE%B7%C2%B7%E7%BE%85%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>胡安·曼努埃爾·德·羅薩斯</t>
+    <t>胡安·曼努埃尔·德·罗萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%93%81%E6%88%B4%E7%9A%84%E9%A0%98%E8%A2%96</t>
   </si>
   <si>
-    <t>國民擁戴的領袖</t>
+    <t>国民拥戴的领袖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -551,13 +548,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%AB%BE%E5%88%87%E7%89%B9</t>
   </si>
   <si>
-    <t>皮諾切特</t>
+    <t>皮诺切特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E8%A5%BF%E7%B1%B3%E5%88%A9%E4%BA%9A%E8%AF%BA%C2%B7%E5%9F%83%E5%B0%94%E5%8D%97%E5%BE%B7%E6%96%AF%C2%B7%E9%A9%AC%E4%B8%81%E5%86%85%E6%96%AF</t>
@@ -569,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%B2%9D%E6%8B%89%E6%96%AF%E7%A7%91%C2%B7%E9%98%BF%E7%88%BE%E7%93%A6%E6%8B%89%E5%A4%9A</t>
   </si>
   <si>
-    <t>胡安·貝拉斯科·阿爾瓦拉多</t>
+    <t>胡安·贝拉斯科·阿尔瓦拉多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jorge_Ubico</t>
@@ -623,13 +620,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%A7%91%E6%96%AF%C2%B7%E4%BD%A9%E9%9B%B7%E6%96%AF%C2%B7%E5%B8%8C%E9%96%80%E5%85%A7%E6%96%AF</t>
   </si>
   <si>
-    <t>馬科斯·佩雷斯·希門內斯</t>
+    <t>马科斯·佩雷斯·希门内斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%88%88%C2%B7%E7%8F%AD%E5%A1%9E%E5%B0%94</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>社會改革</t>
+    <t>社会改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%89%B9%E5%8B%92</t>
@@ -677,19 +674,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF</t>
@@ -707,19 +704,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97</t>
   </si>
   <si>
-    <t>史達林</t>
+    <t>史达林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>納粹德國</t>
+    <t>纳粹德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E7%B4%A2%E9%87%8C%E5%B0%BC</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%97%A5%E6%9C%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大日本帝國</t>
+    <t>大日本帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E6%9D%A1%E8%8B%B1%E6%9C%BA</t>
@@ -761,25 +758,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%8B%89%E6%9F%A5</t>
   </si>
   <si>
-    <t>薩拉查</t>
+    <t>萨拉查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E6%96%AF%C2%B7%E7%BE%8E%E5%A1%94%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>愛奧尼斯·美塔薩克斯</t>
+    <t>爱奥尼斯·美塔萨克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%A7%E6%9E%97</t>
@@ -791,13 +788,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E4%B8%96%E7%95%8C</t>
@@ -815,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%97%8F%E8%AA%8D%E5%90%8C</t>
   </si>
   <si>
-    <t>國族認同</t>
+    <t>国族认同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E4%B8%93%E6%94%BF</t>
@@ -827,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>官方意識形態</t>
+    <t>官方意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E4%BC%A0</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
+    <t>科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E5%83%9A</t>
@@ -857,37 +854,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AF%A7</t>
   </si>
   <si>
-    <t>列寧</t>
+    <t>列宁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B6%AD%E5%9F%83</t>
   </si>
   <si>
-    <t>蘇維埃</t>
+    <t>苏维埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%89%98%E9%82%A6</t>
   </si>
   <si>
-    <t>烏托邦</t>
+    <t>乌托邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%80%B6%E5%85%8B</t>
@@ -911,13 +905,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E7%A4%BE%E6%9C%83%E5%8F%8A%E5%85%B6%E6%95%B5%E4%BA%BA</t>
   </si>
   <si>
-    <t>開放社會及其敵人</t>
+    <t>开放社会及其敌人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A8%81%E7%88%BE</t>
   </si>
   <si>
-    <t>歐威爾</t>
+    <t>欧威尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B9%9D%E5%85%AB%E5%9B%9B</t>
@@ -929,43 +923,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A8%9C%C2%B7%E9%84%82%E8%98%AD</t>
   </si>
   <si>
-    <t>漢娜·鄂蘭</t>
+    <t>汉娜·鄂兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9%E7%9A%84%E8%B5%B7%E6%BA%90</t>
   </si>
   <si>
-    <t>極權主義的起源</t>
+    <t>极权主义的起源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>中產階級</t>
+    <t>中产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -977,13 +971,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -995,31 +989,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C</t>
   </si>
   <si>
-    <t>剛果</t>
+    <t>刚果</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1037,49 +1031,49 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>幾內亞</t>
+    <t>几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%B9%BE%E5%85%A7%E4%BA%9E</t>
   </si>
   <si>
-    <t>赤道幾內亞</t>
+    <t>赤道几内亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E6%AF%94%E7%91%9E%E4%BA%9E</t>
   </si>
   <si>
-    <t>賴比瑞亞</t>
+    <t>赖比瑞亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>甘比亞</t>
+    <t>甘比亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ja:%E9%96%8B%E7%99%BA%E7%8B%AC%E8%A3%81</t>
   </si>
   <si>
-    <t>w-ja-開発独裁</t>
+    <t>w-ja-开発独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B4%E6%AD%A3%E7%86%99</t>
@@ -1103,37 +1097,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8F%AF%E4%BB%95</t>
   </si>
   <si>
-    <t>馬可仕</t>
+    <t>马可仕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%A3%89%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>高棉共和國</t>
+    <t>高棉共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%AB%BE</t>
   </si>
   <si>
-    <t>朗諾</t>
+    <t>朗诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%A0%AF%E5%A7%86</t>
   </si>
   <si>
-    <t>加堯姆</t>
+    <t>加尧姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%AB%8B%C2%B7%E4%BB%96%E9%82%A3%E5%8F%BB</t>
@@ -1151,19 +1145,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%8D%A1%E8%AB%BE</t>
   </si>
   <si>
-    <t>蘇卡諾</t>
+    <t>苏卡诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%93%88%E6%89%98</t>
   </si>
   <si>
-    <t>蘇哈托</t>
+    <t>苏哈托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%93%88%E8%BF%AA%C2%B7%E8%8E%AB%E5%93%88%E6%9C%AB</t>
@@ -1175,31 +1169,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>戒嚴時期</t>
+    <t>戒严时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>權威主義</t>
+    <t>权威主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%97%E7%85%A5</t>
   </si>
   <si>
-    <t>全斗煥</t>
+    <t>全斗焕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E4%B8%AD%E6%AD%A3</t>
   </si>
   <si>
-    <t>蔣中正</t>
+    <t>蒋中正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%8B%E7%BB%8F%E5%9B%BD</t>
@@ -1211,15 +1205,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%9F%B7%E6%94%BF%E5%9C%98</t>
   </si>
   <si>
-    <t>軍事執政團</t>
+    <t>军事执政团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E7%94%B8</t>
   </si>
   <si>
-    <t>缅甸</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E5%A5%88%E6%B8%A9</t>
   </si>
   <si>
@@ -1247,13 +1238,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>國民政府</t>
+    <t>国民政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%93%E6%94%BF%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>訓政時期</t>
+    <t>训政时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E6%B0%91%E5%85%9A%E4%B8%AD%E5%A4%AE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1271,61 +1262,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%93%A1%E5%8B%98%E4%BA%82%E6%99%82%E6%9C%9F%E8%87%A8%E6%99%82%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>動員勘亂時期臨時條款</t>
+    <t>动员勘乱时期临时条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A3%E7%B6%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>蔣經國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E5%9A%B4</t>
   </si>
   <si>
-    <t>戒嚴</t>
+    <t>戒严</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%B1%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>國共內戰</t>
+    <t>国共内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%B2%E5%AE%89%E5%B9%B3</t>
   </si>
   <si>
-    <t>儲安平</t>
+    <t>储安平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>人民民主專政</t>
+    <t>人民民主专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>蘇聯革命</t>
+    <t>苏联革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%BE%A4%E6%9D%B1</t>
   </si>
   <si>
-    <t>毛澤東</t>
+    <t>毛泽东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -1337,13 +1322,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E8%A1%9B%E5%85%B5</t>
   </si>
   <si>
-    <t>紅衛兵</t>
+    <t>红卫兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A4%E7%9C%BE%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>群眾專政</t>
+    <t>群众专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%87%E5%BA%93</t>
@@ -1355,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華人民共和國憲法</t>
+    <t>中华人民共和国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%9B%E6%B3%BD%E4%B8%9C%E9%80%9D%E4%B8%96</t>
@@ -1367,13 +1352,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%BE%A4%E6%B0%91</t>
   </si>
   <si>
-    <t>江澤民</t>
+    <t>江泽民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%A8%E5%92%8C%E5%9C%8B%E5%AE%B6%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>黨和國家領導人</t>
+    <t>党和国家领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%AE%B6</t>
@@ -1385,7 +1370,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B4%B9%E6%99%BA</t>
   </si>
   <si>
-    <t>蘇紹智</t>
+    <t>苏绍智</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E4%BA%A7%E9%98%B6%E7%BA%A7</t>
@@ -1409,7 +1394,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%A4%A7%E6%9C%83%E5%A0%82</t>
   </si>
   <si>
-    <t>人民大會堂</t>
+    <t>人民大会堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%8A%9B%E9%9B%84</t>
@@ -1457,19 +1442,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B6%E5%BE%A9%E6%95%85%E5%9C%9F%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>收復故土主義</t>
+    <t>收复故土主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E7%B5%B1%E4%B8%80%E4%B8%BB%E7%BE%A9%E5%BC%95%E8%B5%B7%E7%9A%84%E7%B4%9B%E7%88%AD</t>
   </si>
   <si>
-    <t>民族統一主義引起的紛爭</t>
+    <t>民族统一主义引起的纷争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>保加利亞</t>
+    <t>保加利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%88%97%E5%A4%AB</t>
@@ -1481,19 +1466,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>改革開放</t>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>法西斯主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>自由中國</t>
+    <t>自由中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AE%B7%E6%B5%B7%E5%85%89</t>
@@ -1517,9 +1499,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E4%B8%93%E6%94%BF</t>
   </si>
   <si>
-    <t>人民民主专政</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%9B%86%E4%B8%AD%E5%88%B6</t>
   </si>
   <si>
@@ -1541,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E8%87%AA%E7%94%B1%E9%82%A6</t>
   </si>
   <si>
-    <t>剛果自由邦</t>
+    <t>刚果自由邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%BF%AA%C2%B7%E9%98%BF%E6%98%8E</t>
@@ -1553,7 +1532,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%B8%83%E6%89%98</t>
@@ -1565,7 +1544,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9C%E5%8D%A1%E8%96%A9</t>
   </si>
   <si>
-    <t>卜卡薩</t>
+    <t>卜卡萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BC%AA%E5%B0%94%C2%B7%E5%A4%9A%E4%BC%8A</t>
@@ -1601,7 +1580,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E8%BC%AA%E6%9B%BF</t>
   </si>
   <si>
-    <t>政黨輪替</t>
+    <t>政党轮替</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%89%E8%8E%89%E8%8A%B1%E9%9D%A9%E5%91%BD</t>
@@ -1619,31 +1598,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98%E5%BD%A2%E6%85%8B</t>
   </si>
   <si>
-    <t>意識形態</t>
+    <t>意识形态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E4%BB%BD%E5%AD%90</t>
   </si>
   <si>
-    <t>知識份子</t>
+    <t>知识份子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A3%AB</t>
   </si>
   <si>
-    <t>普魯士</t>
+    <t>普鲁士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%88%BE%E5%B7%B4%E5%93%88</t>
   </si>
   <si>
-    <t>費爾巴哈</t>
+    <t>费尔巴哈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -1655,25 +1634,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%B8%96%E5%A4%AA%E4%BF%9D</t>
   </si>
   <si>
-    <t>蓋世太保</t>
+    <t>盖世太保</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%B8%AD%E7%87%9F</t>
   </si>
   <si>
-    <t>集中營</t>
+    <t>集中营</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>福利國家</t>
+    <t>福利国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E6%94%BF%E4%BD%93</t>
@@ -1697,13 +1676,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政體列表</t>
+    <t>政体列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%88%B6%E5%BA%A6</t>
@@ -1715,25 +1694,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>政黨政治</t>
+    <t>政党政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>多黨制</t>
+    <t>多党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2%E5%B0%88%E6%94%BF</t>
   </si>
   <si>
-    <t>世襲專政</t>
+    <t>世袭专政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E4%B8%93%E6%94%BF</t>
@@ -1751,19 +1730,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>最高領導人</t>
+    <t>最高领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E8%80%85</t>
   </si>
   <si>
-    <t>獨裁者</t>
+    <t>独裁者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
+    <t>寡头政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E6%94%BF%E6%8D%AE%E7%82%B9</t>
@@ -1775,19 +1754,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E6%B0%93%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>流氓國家</t>
+    <t>流氓国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>伊斯蘭法西斯主義</t>
+    <t>伊斯兰法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>社會主義國家列表</t>
+    <t>社会主义国家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E5%AE%89%C2%B7%E8%B4%9D%E9%9A%86</t>
@@ -1799,13 +1778,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF</t>
   </si>
   <si>
-    <t>軍政</t>
+    <t>军政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E5%8F%B2</t>
@@ -1817,13 +1793,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%AE%B3%E4%BA%BA%E9%A1%9E%E7%BD%AA</t>
   </si>
   <si>
-    <t>危害人類罪</t>
+    <t>危害人类罪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A8%E6%BC%94%E6%80%A7%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>表演性選舉</t>
+    <t>表演性选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1%E6%8E%A0%E5%A4%BA%E8%80%85</t>
@@ -1841,13 +1817,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>集體主義</t>
+    <t>集体主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>個人主義</t>
+    <t>个人主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F%E5%9B%BD%E5%AE%B6</t>
@@ -1871,19 +1847,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>行銷獨裁</t>
+    <t>行销独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>民粹主義</t>
+    <t>民粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E6%96%AF%E5%B7%9E</t>
@@ -1907,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E9%81%A9</t>
   </si>
   <si>
-    <t>胡適</t>
+    <t>胡适</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -1919,13 +1895,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E9%82%8A%E5%88%A9%E5%A4%AB</t>
   </si>
   <si>
-    <t>渡邊利夫</t>
+    <t>渡边利夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E5%B3%B6%E6%9C%8B%E4%B9%8B</t>
   </si>
   <si>
-    <t>小島朋之</t>
+    <t>小岛朋之</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/ABC-CLIO</t>
@@ -1943,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1955,7 +1931,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81%E6%94%BF%E9%AB%94</t>
@@ -3495,7 +3471,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3521,10 +3497,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3550,10 +3526,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3579,10 +3555,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3608,10 +3584,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3637,10 +3613,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>20</v>
@@ -3666,10 +3642,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>11</v>
@@ -3695,10 +3671,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3724,10 +3700,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>12</v>
@@ -3753,10 +3729,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -3782,10 +3758,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -3811,10 +3787,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3840,10 +3816,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3869,10 +3845,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3898,10 +3874,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>22</v>
@@ -3927,10 +3903,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3956,10 +3932,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>12</v>
@@ -3985,10 +3961,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>20</v>
@@ -4014,10 +3990,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -4043,10 +4019,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -4072,10 +4048,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4101,10 +4077,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4130,10 +4106,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>4</v>
@@ -4159,10 +4135,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4188,10 +4164,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -4217,10 +4193,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4246,10 +4222,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -4275,10 +4251,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4304,10 +4280,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>7</v>
@@ -4333,10 +4309,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4362,10 +4338,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4391,10 +4367,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4420,10 +4396,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -4449,10 +4425,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4478,10 +4454,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>4</v>
@@ -4507,10 +4483,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -4536,10 +4512,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4565,10 +4541,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>148</v>
+      </c>
+      <c r="F78" t="s">
         <v>149</v>
-      </c>
-      <c r="F78" t="s">
-        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4594,10 +4570,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4623,10 +4599,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -4652,10 +4628,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4681,10 +4657,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4710,10 +4686,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4739,10 +4715,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4768,10 +4744,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4797,10 +4773,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4826,10 +4802,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4855,10 +4831,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4884,10 +4860,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4913,10 +4889,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4942,10 +4918,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4971,10 +4947,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5000,10 +4976,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5029,10 +5005,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5058,10 +5034,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5087,10 +5063,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5116,10 +5092,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5145,10 +5121,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5174,10 +5150,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5203,10 +5179,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5232,10 +5208,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5261,10 +5237,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5290,10 +5266,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5319,10 +5295,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5348,10 +5324,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5377,10 +5353,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5406,10 +5382,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5435,10 +5411,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5464,10 +5440,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5493,10 +5469,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -5522,10 +5498,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5551,10 +5527,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5580,10 +5556,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5609,10 +5585,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>57</v>
@@ -5638,10 +5614,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5667,10 +5643,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5696,10 +5672,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>15</v>
@@ -5725,10 +5701,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5754,10 +5730,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>3</v>
@@ -5783,10 +5759,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5812,10 +5788,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5841,10 +5817,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5870,10 +5846,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5899,10 +5875,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5928,10 +5904,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5957,10 +5933,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>5</v>
@@ -5986,10 +5962,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6015,10 +5991,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>6</v>
@@ -6044,10 +6020,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>5</v>
@@ -6073,10 +6049,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6102,10 +6078,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6160,10 +6136,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>260</v>
+      </c>
+      <c r="F133" t="s">
         <v>261</v>
-      </c>
-      <c r="F133" t="s">
-        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6189,10 +6165,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>262</v>
+      </c>
+      <c r="F134" t="s">
         <v>263</v>
-      </c>
-      <c r="F134" t="s">
-        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6218,10 +6194,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" t="s">
         <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6247,10 +6223,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>266</v>
+      </c>
+      <c r="F136" t="s">
         <v>267</v>
-      </c>
-      <c r="F136" t="s">
-        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6276,10 +6252,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>268</v>
+      </c>
+      <c r="F137" t="s">
         <v>269</v>
-      </c>
-      <c r="F137" t="s">
-        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6305,10 +6281,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6334,10 +6310,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>7</v>
@@ -6363,10 +6339,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6392,10 +6368,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -6421,10 +6397,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="G142" t="n">
         <v>13</v>
@@ -6450,10 +6426,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>8</v>
@@ -6479,10 +6455,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6508,10 +6484,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6537,10 +6513,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6566,10 +6542,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6595,10 +6571,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>8</v>
@@ -6624,10 +6600,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6653,10 +6629,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6682,10 +6658,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6711,10 +6687,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6740,10 +6716,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6769,10 +6745,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6798,10 +6774,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6827,10 +6803,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6856,10 +6832,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -6885,10 +6861,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>7</v>
@@ -6914,10 +6890,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6943,10 +6919,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>266</v>
+      </c>
+      <c r="F160" t="s">
         <v>267</v>
-      </c>
-      <c r="F160" t="s">
-        <v>268</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6972,10 +6948,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>26</v>
@@ -7001,10 +6977,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7030,10 +7006,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>4</v>
@@ -7059,10 +7035,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7088,10 +7064,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7117,10 +7093,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7146,10 +7122,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7175,10 +7151,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7204,10 +7180,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7233,10 +7209,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7262,10 +7238,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7291,10 +7267,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7320,10 +7296,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7349,10 +7325,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7378,10 +7354,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7407,10 +7383,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7436,10 +7412,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7465,10 +7441,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7494,10 +7470,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7523,10 +7499,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7552,10 +7528,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>5</v>
@@ -7581,10 +7557,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7610,10 +7586,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7639,10 +7615,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7668,10 +7644,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7697,10 +7673,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7726,10 +7702,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7755,10 +7731,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7784,10 +7760,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7813,10 +7789,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7842,10 +7818,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7871,10 +7847,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7900,10 +7876,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7929,10 +7905,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7958,10 +7934,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7987,10 +7963,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>50</v>
@@ -8016,10 +7992,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8045,10 +8021,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>4</v>
@@ -8074,10 +8050,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -8103,10 +8079,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -8132,10 +8108,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8161,10 +8137,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>3</v>
@@ -8190,10 +8166,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -8219,10 +8195,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8248,10 +8224,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8277,10 +8253,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8306,10 +8282,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8335,10 +8311,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8364,10 +8340,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8393,10 +8369,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8422,10 +8398,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8451,10 +8427,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8480,10 +8456,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8509,10 +8485,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8538,10 +8514,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8567,10 +8543,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>3</v>
@@ -8596,10 +8572,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8625,10 +8601,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -8654,10 +8630,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8683,10 +8659,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>52</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8712,10 +8688,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G221" t="n">
         <v>6</v>
@@ -8741,10 +8717,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -8770,10 +8746,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8799,10 +8775,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8828,10 +8804,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8857,10 +8833,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8886,10 +8862,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8915,10 +8891,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -8944,10 +8920,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8973,10 +8949,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9002,10 +8978,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G231" t="n">
         <v>7</v>
@@ -9031,10 +9007,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9060,10 +9036,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9089,10 +9065,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9118,10 +9094,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9147,10 +9123,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9176,10 +9152,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G237" t="n">
         <v>4</v>
@@ -9205,10 +9181,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9234,10 +9210,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9263,10 +9239,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9292,10 +9268,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9321,10 +9297,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9350,10 +9326,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9379,10 +9355,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F244" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9408,10 +9384,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F245" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9437,10 +9413,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F246" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G246" t="n">
         <v>5</v>
@@ -9466,10 +9442,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F247" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9495,10 +9471,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F248" t="s">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9524,10 +9500,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F249" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9553,10 +9529,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F250" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9582,10 +9558,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F251" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -9611,10 +9587,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F252" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -9640,10 +9616,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -9669,10 +9645,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="F254" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9698,10 +9674,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F255" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9727,10 +9703,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F256" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9756,10 +9732,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F257" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9785,10 +9761,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F258" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9814,10 +9790,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F259" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9843,10 +9819,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F260" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9872,10 +9848,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F261" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9901,10 +9877,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F262" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9930,10 +9906,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F263" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -9959,10 +9935,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F264" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -9988,10 +9964,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F265" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10017,10 +9993,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F266" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10046,10 +10022,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F267" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10075,10 +10051,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F268" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G268" t="n">
         <v>2</v>
@@ -10104,10 +10080,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F269" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10133,10 +10109,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F270" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10162,10 +10138,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F271" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G271" t="n">
         <v>5</v>
@@ -10191,10 +10167,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F272" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G272" t="n">
         <v>3</v>
@@ -10220,10 +10196,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F273" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G273" t="n">
         <v>3</v>
@@ -10249,10 +10225,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F274" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10278,10 +10254,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10307,10 +10283,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10336,10 +10312,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G277" t="n">
         <v>3</v>
@@ -10365,10 +10341,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10394,10 +10370,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10423,10 +10399,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G280" t="n">
         <v>12</v>
@@ -10452,10 +10428,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10481,10 +10457,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G282" t="n">
         <v>4</v>
@@ -10510,10 +10486,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10539,10 +10515,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G284" t="n">
         <v>4</v>
@@ -10568,10 +10544,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10597,10 +10573,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10626,10 +10602,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G287" t="n">
         <v>3</v>
@@ -10713,10 +10689,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10742,10 +10718,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F291" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10771,10 +10747,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F292" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10800,10 +10776,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F293" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10829,10 +10805,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F294" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10858,10 +10834,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F295" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10887,10 +10863,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="F296" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10916,10 +10892,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F297" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G297" t="n">
         <v>11</v>
@@ -10945,10 +10921,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="F298" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10974,10 +10950,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>226</v>
+      </c>
+      <c r="F299" t="s">
         <v>227</v>
-      </c>
-      <c r="F299" t="s">
-        <v>228</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11003,10 +10979,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11032,10 +11008,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11061,10 +11037,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11090,10 +11066,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11119,10 +11095,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11148,10 +11124,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>179</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11177,10 +11153,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F306" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G306" t="n">
         <v>2</v>
@@ -11206,10 +11182,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11235,10 +11211,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11264,10 +11240,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11293,10 +11269,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11322,10 +11298,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11351,10 +11327,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11380,10 +11356,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11409,10 +11385,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11438,10 +11414,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11467,10 +11443,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11496,10 +11472,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11525,10 +11501,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11554,10 +11530,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11583,10 +11559,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11612,10 +11588,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>2</v>
@@ -11641,10 +11617,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11670,10 +11646,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -11699,10 +11675,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11728,10 +11704,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11757,10 +11733,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11786,10 +11762,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11815,10 +11791,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -11844,10 +11820,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11873,10 +11849,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>3</v>
@@ -11902,10 +11878,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -11931,10 +11907,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -11960,10 +11936,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G333" t="n">
         <v>5</v>
@@ -11989,10 +11965,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
